--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_region_name.xlsx
@@ -439,40 +439,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>68</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>103</v>
       </c>
       <c r="K2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -485,40 +485,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="E3">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F3">
+        <v>205</v>
+      </c>
+      <c r="G3">
+        <v>316</v>
+      </c>
+      <c r="H3">
+        <v>217</v>
+      </c>
+      <c r="I3">
+        <v>82</v>
+      </c>
+      <c r="J3">
+        <v>203</v>
+      </c>
+      <c r="K3">
+        <v>448</v>
+      </c>
+      <c r="L3">
+        <v>464</v>
+      </c>
+      <c r="M3">
         <v>195</v>
       </c>
-      <c r="G3">
-        <v>296</v>
-      </c>
-      <c r="H3">
-        <v>192</v>
-      </c>
-      <c r="I3">
-        <v>67</v>
-      </c>
-      <c r="J3">
-        <v>196</v>
-      </c>
-      <c r="K3">
-        <v>434</v>
-      </c>
-      <c r="L3">
-        <v>444</v>
-      </c>
-      <c r="M3">
-        <v>187</v>
-      </c>
       <c r="N3">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -595,22 +595,22 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
